--- a/objectsPositioncv3.xlsx
+++ b/objectsPositioncv3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C32C4-6181-4D35-91B5-2D86D1B94AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F43ED1-B47A-4E27-ABDF-827C56B1469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,8 @@
     <sheet name="objectsPositionU21cv3" sheetId="19" state="hidden" r:id="rId19"/>
     <sheet name="U22cv3_check_total" sheetId="20" state="hidden" r:id="rId20"/>
     <sheet name="objectsPositionU22cv3" sheetId="21" state="hidden" r:id="rId21"/>
+    <sheet name="U23cv3_check_total" sheetId="22" state="hidden" r:id="rId22"/>
+    <sheet name="objectsPositionU23cv3" sheetId="23" state="hidden" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="441">
   <si>
     <t>timestamp</t>
   </si>
@@ -1296,6 +1298,84 @@
   </si>
   <si>
     <t>16:26:47</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_40_18_076</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_40_22_174</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_40_14_055</t>
+  </si>
+  <si>
+    <t>U23CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_</t>
+  </si>
+  <si>
+    <t>09:39:43:956</t>
+  </si>
+  <si>
+    <t>09:39:43:960</t>
+  </si>
+  <si>
+    <t>09:39:43:975</t>
+  </si>
+  <si>
+    <t>09:39:50:056</t>
+  </si>
+  <si>
+    <t>09:39:50:077</t>
+  </si>
+  <si>
+    <t>09:39:57:341</t>
+  </si>
+  <si>
+    <t>09:39:57:352</t>
+  </si>
+  <si>
+    <t>09:40:02:094</t>
+  </si>
+  <si>
+    <t>09:40:02:116</t>
+  </si>
+  <si>
+    <t>09:40:02:172</t>
+  </si>
+  <si>
+    <t>09:40:02:316</t>
+  </si>
+  <si>
+    <t>09:40:13:600</t>
+  </si>
+  <si>
+    <t>09:40:14:055</t>
+  </si>
+  <si>
+    <t>09:40:17:542</t>
+  </si>
+  <si>
+    <t>09:40:17:598</t>
+  </si>
+  <si>
+    <t>09:40:17:620</t>
+  </si>
+  <si>
+    <t>09:40:18:076</t>
+  </si>
+  <si>
+    <t>09:40:21:818</t>
+  </si>
+  <si>
+    <t>09:40:22:174</t>
+  </si>
+  <si>
+    <t>09:39:43</t>
+  </si>
+  <si>
+    <t>09:40:22</t>
   </si>
 </sst>
 </file>
@@ -1672,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A422ECC-103B-422B-94AF-4A452CAB815B}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2341,20 +2421,37 @@
         <v>3</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23">
-        <v>17</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5138888888890394E-4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -4735,7 +4832,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4806,7 +4903,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6337,7 +6434,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6748,6 +6845,534 @@
       </c>
       <c r="E20" t="s">
         <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>09:39:43</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C26,LEN(C2)-4)</f>
+        <v>09:40:22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
+        <v>436</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/objectsPositioncv3.xlsx
+++ b/objectsPositioncv3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
@@ -36,6 +36,14 @@
     <sheet name="objectsPositionU22cv3" sheetId="21" state="hidden" r:id="rId21"/>
     <sheet name="U23cv3_check_total" sheetId="22" state="hidden" r:id="rId22"/>
     <sheet name="objectsPositionU23cv3" sheetId="23" state="hidden" r:id="rId23"/>
+    <sheet name="U24cv3_check_total" r:id="rId28" sheetId="24"/>
+    <sheet name="objectsPositionU24cv3" r:id="rId29" sheetId="25"/>
+    <sheet name="U25cv3_check_total" r:id="rId30" sheetId="26"/>
+    <sheet name="objectsPositionU25cv3" r:id="rId31" sheetId="27"/>
+    <sheet name="U26cv3_check_total" r:id="rId32" sheetId="28"/>
+    <sheet name="objectsPositionU26cv3" r:id="rId33" sheetId="29"/>
+    <sheet name="U27cv3_check_total" r:id="rId34" sheetId="30"/>
+    <sheet name="objectsPositionU27cv3" r:id="rId35" sheetId="31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="532">
   <si>
     <t>timestamp</t>
   </si>
@@ -1376,6 +1384,279 @@
   </si>
   <si>
     <t>09:40:22</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_20_469</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_22_468</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_18_847</t>
+  </si>
+  <si>
+    <t>U24CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_16_51_167</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_16_51_170</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_16_51_188</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_16_56_536</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_16_56_568</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_10_795</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_10_829</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_10_906</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_10_929</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_14_449</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_14_594</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_18_747</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_17_22_234</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_40_059</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_42_070</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_38_249</t>
+  </si>
+  <si>
+    <t>U25CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_11_682</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_11_686</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_11_690</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_25_633</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_25_877</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_29_397</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_29_398</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_29_531</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_31_852</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_31_952</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_07_38_238</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_32_625</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_36_124</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_28_350</t>
+  </si>
+  <si>
+    <t>U26CV</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_02_56_071</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_02_56_075</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_02_56_092</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_05_549</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_05_571</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_11_290</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_16_888</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_16_910</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_28_128</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_32_148</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_03_36_046</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_47_202</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_49_900</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_44_581</t>
+  </si>
+  <si>
+    <t>U27CV</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_45_315</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_45_318</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_45_337</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_47_818</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_48_040</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_49_262</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_49_295</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_55_637</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_55_659</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_55_781</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_00_57_635</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_02_333</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_02_355</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_02_455</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_04_254</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_06_020</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_06_054</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_06_076</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_06_298</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_07_075</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_07_231</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_09_019</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_09_042</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_09_141</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_09_396</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_09_952</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_10_097</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_22_158</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_22_513</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_27_733</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_27_755</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_36_540</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_36_817</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_44_536</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_47_113</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_01_49_856</t>
   </si>
 </sst>
 </file>
@@ -1758,9 +2039,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -2533,7 +2814,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3163,7 +3444,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3725,7 +4006,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4287,7 +4568,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4832,7 +5113,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4903,7 +5184,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6434,7 +6715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6860,7 +7141,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7380,6 +7661,1080 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
@@ -7388,7 +8743,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7446,6 +8801,784 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>517</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>518</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>520</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>522</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>523</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>523</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>526</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>527</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" t="s">
+        <v>492</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" t="s">
+        <v>530</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" t="s">
+        <v>490</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>488</v>
+      </c>
+      <c r="B47" t="s">
+        <v>490</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>494</v>
+      </c>
+      <c r="B48" t="s">
+        <v>531</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>489</v>
+      </c>
+      <c r="B50" t="s">
+        <v>491</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8224,7 +10357,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">

--- a/objectsPositioncv3.xlsx
+++ b/objectsPositioncv3.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F43ED1-B47A-4E27-ABDF-827C56B1469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672713C7-DB23-415C-9260-9EBD8FB54949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,14 @@
     <sheet name="objectsPositionU22cv3" sheetId="21" state="hidden" r:id="rId21"/>
     <sheet name="U23cv3_check_total" sheetId="22" state="hidden" r:id="rId22"/>
     <sheet name="objectsPositionU23cv3" sheetId="23" state="hidden" r:id="rId23"/>
-    <sheet name="U24cv3_check_total" r:id="rId28" sheetId="24"/>
-    <sheet name="objectsPositionU24cv3" r:id="rId29" sheetId="25"/>
-    <sheet name="U25cv3_check_total" r:id="rId30" sheetId="26"/>
-    <sheet name="objectsPositionU25cv3" r:id="rId31" sheetId="27"/>
-    <sheet name="U26cv3_check_total" r:id="rId32" sheetId="28"/>
-    <sheet name="objectsPositionU26cv3" r:id="rId33" sheetId="29"/>
-    <sheet name="U27cv3_check_total" r:id="rId34" sheetId="30"/>
-    <sheet name="objectsPositionU27cv3" r:id="rId35" sheetId="31"/>
+    <sheet name="U24cv3_check_total" sheetId="24" state="hidden" r:id="rId24"/>
+    <sheet name="objectsPositionU24cv3" sheetId="25" state="hidden" r:id="rId25"/>
+    <sheet name="U25cv3_check_total" sheetId="26" state="hidden" r:id="rId26"/>
+    <sheet name="objectsPositionU25cv3" sheetId="27" state="hidden" r:id="rId27"/>
+    <sheet name="U26cv3_check_total" sheetId="28" state="hidden" r:id="rId28"/>
+    <sheet name="objectsPositionU26cv3" sheetId="29" state="hidden" r:id="rId29"/>
+    <sheet name="U27cv3_check_total" sheetId="30" state="hidden" r:id="rId30"/>
+    <sheet name="objectsPositionU27cv3" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="552">
   <si>
     <t>timestamp</t>
   </si>
@@ -1398,45 +1398,6 @@
     <t>U24CV</t>
   </si>
   <si>
-    <t>2021_11_10_12_16_51_167</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_16_51_170</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_16_51_188</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_16_56_536</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_16_56_568</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_10_795</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_10_829</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_10_906</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_10_929</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_14_449</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_14_594</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_18_747</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_17_22_234</t>
-  </si>
-  <si>
     <t>2021_11_10_14_07_40_059</t>
   </si>
   <si>
@@ -1449,39 +1410,6 @@
     <t>U25CV</t>
   </si>
   <si>
-    <t>2021_11_10_14_07_11_682</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_11_686</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_11_690</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_25_633</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_25_877</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_29_397</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_29_398</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_29_531</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_31_852</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_31_952</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_07_38_238</t>
-  </si>
-  <si>
     <t>2021_11_10_15_03_32_625</t>
   </si>
   <si>
@@ -1494,39 +1422,6 @@
     <t>U26CV</t>
   </si>
   <si>
-    <t>2021_11_10_15_02_56_071</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_02_56_075</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_02_56_092</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_05_549</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_05_571</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_11_290</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_16_888</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_16_910</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_28_128</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_32_148</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_03_36_046</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
@@ -1551,112 +1446,277 @@
     <t>48</t>
   </si>
   <si>
-    <t>2021_11_10_16_00_45_315</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_45_318</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_45_337</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_47_818</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_48_040</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_49_262</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_49_295</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_55_637</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_55_659</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_55_781</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_00_57_635</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_02_333</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_02_355</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_02_455</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_04_254</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_06_020</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_06_054</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_06_076</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_06_298</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_07_075</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_07_231</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_09_019</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_09_042</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_09_141</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_09_396</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_09_952</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_10_097</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_22_158</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_22_513</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_27_733</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_27_755</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_36_540</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_36_817</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_44_536</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_47_113</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_01_49_856</t>
+    <t>12:16:51:167</t>
+  </si>
+  <si>
+    <t>12:16:51:170</t>
+  </si>
+  <si>
+    <t>12:16:51:188</t>
+  </si>
+  <si>
+    <t>12:16:56:536</t>
+  </si>
+  <si>
+    <t>12:16:56:568</t>
+  </si>
+  <si>
+    <t>12:17:10:795</t>
+  </si>
+  <si>
+    <t>12:17:10:829</t>
+  </si>
+  <si>
+    <t>12:17:10:906</t>
+  </si>
+  <si>
+    <t>12:17:10:929</t>
+  </si>
+  <si>
+    <t>12:17:14:449</t>
+  </si>
+  <si>
+    <t>12:17:14:594</t>
+  </si>
+  <si>
+    <t>12:17:18:747</t>
+  </si>
+  <si>
+    <t>12:17:18:847</t>
+  </si>
+  <si>
+    <t>12:17:20:469</t>
+  </si>
+  <si>
+    <t>12:17:22:234</t>
+  </si>
+  <si>
+    <t>12:17:22:468</t>
+  </si>
+  <si>
+    <t>12:16:51</t>
+  </si>
+  <si>
+    <t>12:17:22</t>
+  </si>
+  <si>
+    <t>14:07:11:682</t>
+  </si>
+  <si>
+    <t>14:07:11:686</t>
+  </si>
+  <si>
+    <t>14:07:11:690</t>
+  </si>
+  <si>
+    <t>14:07:25:633</t>
+  </si>
+  <si>
+    <t>14:07:25:877</t>
+  </si>
+  <si>
+    <t>14:07:29:397</t>
+  </si>
+  <si>
+    <t>14:07:29:398</t>
+  </si>
+  <si>
+    <t>14:07:29:531</t>
+  </si>
+  <si>
+    <t>14:07:31:852</t>
+  </si>
+  <si>
+    <t>14:07:31:952</t>
+  </si>
+  <si>
+    <t>14:07:38:238</t>
+  </si>
+  <si>
+    <t>14:07:38:249</t>
+  </si>
+  <si>
+    <t>14:07:40:059</t>
+  </si>
+  <si>
+    <t>14:07:42:070</t>
+  </si>
+  <si>
+    <t>14:07:11</t>
+  </si>
+  <si>
+    <t>14:07:42</t>
+  </si>
+  <si>
+    <t>15:02:56:071</t>
+  </si>
+  <si>
+    <t>15:02:56:075</t>
+  </si>
+  <si>
+    <t>15:02:56:092</t>
+  </si>
+  <si>
+    <t>15:03:05:549</t>
+  </si>
+  <si>
+    <t>15:03:05:571</t>
+  </si>
+  <si>
+    <t>15:03:11:290</t>
+  </si>
+  <si>
+    <t>15:03:16:888</t>
+  </si>
+  <si>
+    <t>15:03:16:910</t>
+  </si>
+  <si>
+    <t>15:03:28:128</t>
+  </si>
+  <si>
+    <t>15:03:28:350</t>
+  </si>
+  <si>
+    <t>15:03:32:148</t>
+  </si>
+  <si>
+    <t>15:03:32:625</t>
+  </si>
+  <si>
+    <t>15:03:36:046</t>
+  </si>
+  <si>
+    <t>15:03:36:124</t>
+  </si>
+  <si>
+    <t>15:02:56</t>
+  </si>
+  <si>
+    <t>15:03:36</t>
+  </si>
+  <si>
+    <t>16:00:45:315</t>
+  </si>
+  <si>
+    <t>16:00:45:318</t>
+  </si>
+  <si>
+    <t>16:00:45:337</t>
+  </si>
+  <si>
+    <t>16:00:47:818</t>
+  </si>
+  <si>
+    <t>16:00:48:040</t>
+  </si>
+  <si>
+    <t>16:00:49:262</t>
+  </si>
+  <si>
+    <t>16:00:49:295</t>
+  </si>
+  <si>
+    <t>16:00:55:637</t>
+  </si>
+  <si>
+    <t>16:00:55:659</t>
+  </si>
+  <si>
+    <t>16:00:55:781</t>
+  </si>
+  <si>
+    <t>16:00:57:635</t>
+  </si>
+  <si>
+    <t>16:01:02:333</t>
+  </si>
+  <si>
+    <t>16:01:02:355</t>
+  </si>
+  <si>
+    <t>16:01:02:455</t>
+  </si>
+  <si>
+    <t>16:01:04:254</t>
+  </si>
+  <si>
+    <t>16:01:06:020</t>
+  </si>
+  <si>
+    <t>16:01:06:054</t>
+  </si>
+  <si>
+    <t>16:01:06:076</t>
+  </si>
+  <si>
+    <t>16:01:06:298</t>
+  </si>
+  <si>
+    <t>16:01:07:075</t>
+  </si>
+  <si>
+    <t>16:01:07:231</t>
+  </si>
+  <si>
+    <t>16:01:09:019</t>
+  </si>
+  <si>
+    <t>16:01:09:042</t>
+  </si>
+  <si>
+    <t>16:01:09:141</t>
+  </si>
+  <si>
+    <t>16:01:09:396</t>
+  </si>
+  <si>
+    <t>16:01:09:952</t>
+  </si>
+  <si>
+    <t>16:01:10:097</t>
+  </si>
+  <si>
+    <t>16:01:22:158</t>
+  </si>
+  <si>
+    <t>16:01:22:513</t>
+  </si>
+  <si>
+    <t>16:01:27:733</t>
+  </si>
+  <si>
+    <t>16:01:27:755</t>
+  </si>
+  <si>
+    <t>16:01:36:540</t>
+  </si>
+  <si>
+    <t>16:01:36:817</t>
+  </si>
+  <si>
+    <t>16:01:44:536</t>
+  </si>
+  <si>
+    <t>16:01:44:581</t>
+  </si>
+  <si>
+    <t>16:01:47:113</t>
+  </si>
+  <si>
+    <t>16:01:47:202</t>
+  </si>
+  <si>
+    <t>16:01:49:856</t>
+  </si>
+  <si>
+    <t>16:01:49:900</t>
+  </si>
+  <si>
+    <t>16:00:45</t>
+  </si>
+  <si>
+    <t>16:01:49</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1717,6 +1777,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2033,15 +2094,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A422ECC-103B-422B-94AF-4A452CAB815B}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -2736,51 +2797,115 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="D25" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5879629629631538E-4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="D26" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5879629629631538E-4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" t="s">
+        <v>452</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="D27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.6296296296299833E-4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="D28" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.407407407407085E-4</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -2814,7 +2939,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3444,7 +3569,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4006,7 +4131,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4568,7 +4693,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5113,7 +5238,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5184,7 +5309,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6715,7 +6840,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7141,7 +7266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -7662,15 +7787,19 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7681,7 +7810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7695,7 +7824,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -7709,7 +7838,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -7724,339 +7853,413 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>12:16:51</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C22,LEN(C2)-4)</f>
+        <v>12:17:22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="C3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="C11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
+        <v>471</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="C16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C21" t="s">
+        <v>476</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C22" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>444</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8067,326 +8270,388 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:07:11</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C18,LEN(C2)-4)</f>
+        <v>14:07:42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="C3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="C16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>461</v>
+      <c r="E18" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8397,341 +8662,407 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>477</v>
+      <c r="B2" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:02:56</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C20,LEN(C2)-4)</f>
+        <v>15:03:36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>478</v>
+      <c r="B3" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>479</v>
+      <c r="B4" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>480</v>
+      <c r="B5" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>480</v>
+      <c r="B6" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>481</v>
+      <c r="B7" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>482</v>
+      <c r="B8" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>483</v>
+      <c r="B9" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>483</v>
+      <c r="B10" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>484</v>
+      <c r="B11" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>485</v>
+      <c r="B12" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>475</v>
+      <c r="B13" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>475</v>
+      <c r="B14" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>486</v>
+      <c r="B15" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>473</v>
+      <c r="B16" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C16" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>473</v>
+      <c r="B17" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>487</v>
+      <c r="B18" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C18" t="s">
+        <v>507</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>474</v>
+      <c r="B19" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C19" t="s">
+        <v>508</v>
+      </c>
+      <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>474</v>
+      <c r="B20" s="5">
+        <v>84.216087962962959</v>
       </c>
       <c r="C20" t="s">
+        <v>508</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>476</v>
+      <c r="E20" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8743,7 +9074,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8805,15 +9136,17 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8824,761 +9157,917 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:00:45</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C50,LEN(C2)-4)</f>
+        <v>16:01:49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>419</v>
       </c>
       <c r="C3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>502</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>503</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
+        <v>518</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>504</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>505</v>
+        <v>419</v>
       </c>
       <c r="C11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="C16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="C18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>512</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>513</v>
+        <v>419</v>
       </c>
       <c r="C20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>514</v>
+        <v>419</v>
       </c>
       <c r="C21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>515</v>
+        <v>419</v>
       </c>
       <c r="C22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="C23" t="s">
+        <v>531</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="D23" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="C24" t="s">
+        <v>531</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>517</v>
+        <v>419</v>
       </c>
       <c r="C25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>517</v>
+        <v>419</v>
       </c>
       <c r="C26" t="s">
+        <v>532</v>
+      </c>
+      <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>518</v>
+        <v>419</v>
       </c>
       <c r="C27" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>519</v>
+        <v>419</v>
       </c>
       <c r="C28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>520</v>
+        <v>419</v>
       </c>
       <c r="C29" t="s">
+        <v>535</v>
+      </c>
+      <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>521</v>
+        <v>419</v>
       </c>
       <c r="C30" t="s">
+        <v>536</v>
+      </c>
+      <c r="D30" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>522</v>
+        <v>419</v>
       </c>
       <c r="C31" t="s">
+        <v>537</v>
+      </c>
+      <c r="D31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>522</v>
+        <v>419</v>
       </c>
       <c r="C32" t="s">
+        <v>537</v>
+      </c>
+      <c r="D32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>523</v>
+        <v>419</v>
       </c>
       <c r="C33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D33" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>523</v>
+        <v>419</v>
       </c>
       <c r="C34" t="s">
+        <v>538</v>
+      </c>
+      <c r="D34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="C35" t="s">
+        <v>539</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>525</v>
+        <v>419</v>
       </c>
       <c r="C36" t="s">
+        <v>540</v>
+      </c>
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>525</v>
+        <v>419</v>
       </c>
       <c r="C37" t="s">
+        <v>540</v>
+      </c>
+      <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="D37" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>526</v>
+        <v>419</v>
       </c>
       <c r="C38" t="s">
+        <v>541</v>
+      </c>
+      <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>527</v>
+        <v>419</v>
       </c>
       <c r="C39" t="s">
+        <v>542</v>
+      </c>
+      <c r="D39" t="s">
         <v>50</v>
       </c>
-      <c r="D39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>527</v>
+        <v>419</v>
       </c>
       <c r="C40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D40" t="s">
         <v>48</v>
       </c>
-      <c r="D40" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>528</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
+        <v>543</v>
+      </c>
+      <c r="D41" t="s">
         <v>50</v>
       </c>
-      <c r="D41" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="C42" t="s">
+        <v>544</v>
+      </c>
+      <c r="D42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>353</v>
       </c>
       <c r="B43" t="s">
-        <v>492</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
+        <v>545</v>
+      </c>
+      <c r="D43" t="s">
         <v>51</v>
       </c>
-      <c r="D43" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>354</v>
       </c>
       <c r="B44" t="s">
-        <v>492</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D44" t="s">
         <v>49</v>
       </c>
-      <c r="D44" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>355</v>
       </c>
       <c r="B45" t="s">
-        <v>530</v>
+        <v>419</v>
       </c>
       <c r="C45" t="s">
+        <v>546</v>
+      </c>
+      <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="D45" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>348</v>
       </c>
       <c r="B46" t="s">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="C46" t="s">
+        <v>547</v>
+      </c>
+      <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="D46" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="B47" t="s">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="C47" t="s">
+        <v>547</v>
+      </c>
+      <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="D47" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="B48" t="s">
-        <v>531</v>
+        <v>419</v>
       </c>
       <c r="C48" t="s">
+        <v>548</v>
+      </c>
+      <c r="D48" t="s">
         <v>48</v>
       </c>
-      <c r="D48" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="B49" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s">
+        <v>549</v>
+      </c>
+      <c r="D49" t="s">
         <v>50</v>
       </c>
-      <c r="D49" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="B50" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="C50" t="s">
+        <v>549</v>
+      </c>
+      <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
-        <v>493</v>
+      <c r="E50" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10357,7 +10846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
